--- a/Project Outputs for MHE_Tracker_V3_4LayerPCB/BOM/Bill of Materials-MHE_Tracker_V3_4LayerPCB.xlsx
+++ b/Project Outputs for MHE_Tracker_V3_4LayerPCB/BOM/Bill of Materials-MHE_Tracker_V3_4LayerPCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vylt-my.sharepoint.com/personal/satyam_vylt_in/Documents/Altium_Designs/MHE_Tracker_V3_4LayerPCB/Project Outputs for MHE_Tracker_V3_4LayerPCB/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73918B89-FA0F-4024-881C-AD2404000BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF4B036-C863-41C9-9A80-EEDE2368D4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{4FA0040C-9B49-4415-B792-58787D3E472C}"/>
+    <workbookView xWindow="6840" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{C95F2172-09C3-4682-9657-98F013BF83D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-MHE_Tracker_V" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F88BD9-304B-4989-ADEB-9DAE8FF07A82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B14B960-DEFC-4F00-BED9-B217CB01118F}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
